--- a/OtherModule/Excel/Задания(примеры).xlsx
+++ b/OtherModule/Excel/Задания(примеры).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yakushev\Documents\1_Excel\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF43D99-6C5E-4387-B7C0-F1CDC097BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11700" tabRatio="631"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАНИЕ1" sheetId="13" r:id="rId1"/>
@@ -28,7 +29,20 @@
     <definedName name="вв" hidden="1">{"программа",#N/A,TRUE,"lessons";"продажа оргтехники",#N/A,TRUE,"образец"}</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">ЗАДАНИЕ3!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -431,11 +445,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1106,38 +1120,37 @@
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="23" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,14 +1165,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1168,35 +1178,23 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1205,7 +1203,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,9 +1221,6 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,22 +1228,20 @@
     <xf numFmtId="9" fontId="28" fillId="18" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="27" fillId="19" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="28" fillId="18" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,8 +1287,8 @@
     <cellStyle name="Название" xfId="16" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="17" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="27"/>
-    <cellStyle name="Обычный 3" xfId="29"/>
+    <cellStyle name="Обычный 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Плохой" xfId="18" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="19" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="20" builtinId="10" customBuiltin="1"/>
@@ -1303,7 +1296,7 @@
     <cellStyle name="Связанная ячейка" xfId="21" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="22" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Финансовый" xfId="23" builtinId="3"/>
-    <cellStyle name="Финансовый 2" xfId="28"/>
+    <cellStyle name="Финансовый 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Хороший" xfId="24" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
@@ -1357,25 +1350,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>1841501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1781176</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098551</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238501" y="1219200"/>
-          <a:ext cx="3295650" cy="1200150"/>
+          <a:off x="5588001" y="1814512"/>
+          <a:ext cx="3297238" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,7 +1594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1807,7 +1812,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2021,7 +2032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2256,7 +2273,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2471,7 +2494,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2638,7 +2667,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2769,7 +2804,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2872,9 +2913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2912,9 +2953,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2949,7 +2990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2984,7 +3025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3157,13 +3198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3245,7 +3288,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3300,10 +3343,10 @@
     <row r="4" spans="2:18" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -3317,30 +3360,42 @@
       <c r="B8" s="5">
         <v>332983</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="str">
+        <f>INDEX($2:$3,2,MATCH($B8,$2:$2,0))</f>
+        <v>Холодильник Indesit ТТ 85</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>398886</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="str">
+        <f t="shared" ref="C9:C11" si="0">INDEX($2:$3,2,MATCH($B9,$2:$2,0))</f>
+        <v xml:space="preserve">Холодильник Саратов 501 </v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>451634</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Вентилятор Polaris PSF 4</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>614346</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F14" s="64"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3381,227 +3436,227 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>3698</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2194</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3120</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1266</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>4959</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>147</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2618</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>2076</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>9178</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>5872</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>10614</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>2526</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>899</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>1304</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Выбери заказ" prompt=" " sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Выбери заказ" prompt=" " sqref="F2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$D$2:$D$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -3611,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3623,307 +3678,237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="25" customWidth="1"/>
-    <col min="10" max="11" width="0" style="25" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="0" style="30" hidden="1"/>
-    <col min="13" max="16384" width="9.140625" style="30" hidden="1"/>
+    <col min="1" max="1" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="23" customWidth="1"/>
+    <col min="10" max="12" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="23" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>42263</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>40</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="H2" s="28">
+      <c r="F2" s="24"/>
+      <c r="H2" s="25">
         <v>140</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="26">
         <f>SUMIF($B$2:$B$13,$E5,$C$2:$C$13)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>42264</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>60</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29">
+      <c r="H3" s="25"/>
+      <c r="I3" s="26">
         <f>SUMIF($B$2:$B$13,$E6,$C$2:$C$13)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>42265</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>30</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="26">
         <f>SUMIF($B$2:$B$13,$E7,$C$2:$C$13)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>42266</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>20</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="H5" s="28">
+      <c r="F5" s="24"/>
+      <c r="H5" s="25">
         <v>120</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="26">
         <f>SUMIF($B$2:$B$13,$E8,$C$2:$C$13)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>42267</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>100</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="H6" s="28">
+      <c r="F6" s="24"/>
+      <c r="H6" s="25">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>42268</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="H7" s="28">
+      <c r="F7" s="24"/>
+      <c r="H7" s="25">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>42269</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>30</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="H8" s="28">
+      <c r="F8" s="24"/>
+      <c r="H8" s="25">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>42270</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <v>42271</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>42272</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>40</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>42273</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>10</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>42274</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>20</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A2:C13">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -3936,400 +3921,369 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="35" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="29" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="35"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>7</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="30">
         <v>42308</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="I2" s="35">
+      <c r="F2" s="24"/>
+      <c r="I2" s="29">
         <v>42308</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>10</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="30">
         <v>42308</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="29">
         <v>42309</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>9</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="30">
         <v>42308</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="32">
         <v>42311</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="29">
         <v>42310</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>8</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="30">
         <v>42309</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="34">
         <v>42314</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="29">
         <v>42311</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>10</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="30">
         <v>42309</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="I6" s="35">
+      <c r="F6" s="28"/>
+      <c r="I6" s="29">
         <v>42312</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="30">
         <v>42309</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="29">
         <v>42313</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>8</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="30">
         <v>42310</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="29">
         <v>42314</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>9</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="30">
         <v>42310</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="I9" s="35">
+      <c r="I9" s="29">
         <v>42315</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
         <v>42310</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="30">
         <v>42311</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>4</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="30">
         <v>42312</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>2</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="30">
         <v>42312</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>4</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="30">
         <v>42312</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>3</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="30">
         <v>42313</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="30">
         <v>42313</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>7</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="30">
         <v>42313</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>8</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="30">
         <v>42313</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="30">
         <v>42313</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>1</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="30">
         <v>42314</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>2</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="30">
         <v>42314</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <v>1</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="30">
         <v>42314</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>3</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="30">
         <v>42315</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="30">
         <v>42315</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>4</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="30">
         <v>42315</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>8</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="30">
         <v>42315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C26"/>
+  <autoFilter ref="A1:C26" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:C26">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($A2=$E$2,$A2&lt;&gt;"Вентилятор")</formula>
@@ -4342,7 +4296,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4353,11 +4307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -4365,264 +4319,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14" style="46" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="23.5703125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="14" style="39" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" s="36" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="38">
         <v>1.02</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="42">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="F2" s="47">
+      <c r="D2" s="43"/>
+      <c r="F2" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="38">
         <v>0.75</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="42">
         <v>5</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="F3" s="47">
+      <c r="D3" s="43"/>
+      <c r="F3" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>0.98</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="42">
         <v>2</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="F4" s="47">
+      <c r="D4" s="43"/>
+      <c r="F4" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="38">
         <v>0.9</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="42">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="F5" s="47">
+      <c r="D5" s="43"/>
+      <c r="F5" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="38">
         <v>0.92</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="42">
         <v>2</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="47">
+      <c r="D6" s="43"/>
+      <c r="F6" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="38">
         <v>0.91</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="F7" s="47">
+      <c r="D7" s="43"/>
+      <c r="F7" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="38">
         <v>0.67</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="F8" s="47">
+      <c r="D8" s="43"/>
+      <c r="F8" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="38">
         <v>0.64</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="42">
         <v>5</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="F9" s="47">
+      <c r="D9" s="43"/>
+      <c r="F9" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="38">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="42">
         <v>4</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="F10" s="47">
+      <c r="D10" s="43"/>
+      <c r="F10" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="38">
         <v>0.8</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="42">
         <v>0</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="F11" s="47">
+      <c r="D11" s="43"/>
+      <c r="F11" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="38">
         <v>0.95</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="42">
         <v>5</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="F12" s="47">
+      <c r="D12" s="43"/>
+      <c r="F12" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="38">
         <v>0.97</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="42">
         <v>5</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="F13" s="47">
+      <c r="D13" s="43"/>
+      <c r="F13" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="38">
         <v>1.17</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="42">
         <v>5</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="F14" s="47">
+      <c r="D14" s="43"/>
+      <c r="F14" s="40">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="38">
         <v>0.94</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="42">
         <v>0</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="F15" s="47">
+      <c r="D15" s="43"/>
+      <c r="F15" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="38">
         <v>0.98</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="42">
         <v>4</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="F16" s="47">
+      <c r="D16" s="43"/>
+      <c r="F16" s="40">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="6:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="F18" s="65"/>
+      <c r="F18" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4632,11 +4579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -4645,140 +4592,138 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4786,11 +4731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4804,128 +4749,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4934,11 +4879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -4947,143 +4892,143 @@
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="53" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="49" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="51">
         <v>29852</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="51">
         <v>21770</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="51">
         <v>25534</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="54">
         <v>22064</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="52"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="51">
         <v>29479</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="52"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="51">
         <v>21315</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="52"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="51">
         <v>26750</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="51">
         <v>23396</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="51">
         <v>30520</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="51">
         <v>31299</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="52"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="51">
         <v>23182</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="51">
         <v>28369</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="51">
         <v>24976</v>
       </c>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/OtherModule/Excel/Задания(примеры).xlsx
+++ b/OtherModule/Excel/Задания(примеры).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF43D99-6C5E-4387-B7C0-F1CDC097BCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73557D2-73C0-40B2-9EB5-BEC75BD6E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="631" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЗАДАНИЕ1" sheetId="13" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>Михайлова Александра-77000</t>
   </si>
   <si>
-    <t>Мусагутова Софья-66000</t>
-  </si>
-  <si>
     <t>Мухаметзянов Алик-59000</t>
   </si>
   <si>
@@ -440,6 +437,9 @@
   </si>
   <si>
     <t>Бутылкин Максим Павлович</t>
+  </si>
+  <si>
+    <t>Мусагутова Софья-665000</t>
   </si>
 </sst>
 </file>
@@ -1581,16 +1581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>337316</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111344</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35144</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42370</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>54194</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152729</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1605,7 +1605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695575" y="1444844"/>
+          <a:off x="3851713" y="2305379"/>
           <a:ext cx="3298278" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1799,16 +1799,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1183821</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>115660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1823,8 +1823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2826203" y="1619249"/>
-          <a:ext cx="3324225" cy="1040947"/>
+          <a:off x="4265839" y="1704974"/>
+          <a:ext cx="3320143" cy="1077686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2019,16 +2019,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18298</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2043,8 +2043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3016703" y="1838324"/>
-          <a:ext cx="3079297" cy="1240972"/>
+          <a:off x="6120867" y="1355177"/>
+          <a:ext cx="3082253" cy="1240972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,16 +2260,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277538</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21348</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>39742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>650327</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177362</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426982</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2284,7 +2284,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1078952" y="2424276"/>
+          <a:off x="6183038" y="401035"/>
           <a:ext cx="2849289" cy="873345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2481,16 +2481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>258817</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77513</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15765</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>239111</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120869</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2505,8 +2505,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="258817" y="2363513"/>
-          <a:ext cx="3161644" cy="904875"/>
+          <a:off x="4929351" y="392824"/>
+          <a:ext cx="3159673" cy="966952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,16 +2654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1626578</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227136</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2678,8 +2678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3641481" y="1597269"/>
-          <a:ext cx="2806212" cy="908539"/>
+          <a:off x="7114443" y="3172558"/>
+          <a:ext cx="2967405" cy="908539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,16 +2791,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>307911</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50738</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58796</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>578827</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2815,7 +2815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="307911" y="1743257"/>
+          <a:off x="5634584" y="2688430"/>
           <a:ext cx="2718108" cy="1084935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3204,7 +3204,7 @@
   </sheetPr>
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3413,7 +3413,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3460,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,7 +3493,10 @@
       <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17" t="str">
+        <f>INDEX(B:B,MATCH(F2,D:D,0))</f>
+        <v>Земляная</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -3511,7 +3514,10 @@
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17" t="str">
+        <f>INDEX(C:C,MATCH(F2,D:D,0))</f>
+        <v>Анна</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -3673,7 +3679,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3721,7 +3727,10 @@
       <c r="E2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="24">
+        <f>SUMIF($B:$B,$E2,$C:$C)</f>
+        <v>140</v>
+      </c>
       <c r="H2" s="25">
         <v>140</v>
       </c>
@@ -3780,7 +3789,10 @@
       <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="24">
+        <f>SUMIF($B:$B,$E5,$C:$C)</f>
+        <v>120</v>
+      </c>
       <c r="H5" s="25">
         <v>120</v>
       </c>
@@ -3802,7 +3814,10 @@
       <c r="E6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="24">
+        <f t="shared" ref="F6:F8" si="0">SUMIF($B:$B,$E6,$C:$C)</f>
+        <v>60</v>
+      </c>
       <c r="H6" s="25">
         <v>60</v>
       </c>
@@ -3820,7 +3835,10 @@
       <c r="E7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="24">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="H7" s="25">
         <v>140</v>
       </c>
@@ -3838,7 +3856,10 @@
       <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="H8" s="25">
         <v>90</v>
       </c>
@@ -3927,7 +3948,9 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3975,7 +3998,10 @@
       <c r="E2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="24">
+        <f>SUMIF(A:A,E2,B:B)</f>
+        <v>49</v>
+      </c>
       <c r="I2" s="29">
         <v>42308</v>
       </c>
@@ -4047,7 +4073,10 @@
       <c r="E6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <f>SUMIFS(B:B,A:A,E2,C:C,"&gt;="&amp;F4,C:C,"&lt;="&amp;F5)</f>
+        <v>10</v>
+      </c>
       <c r="I6" s="29">
         <v>42312</v>
       </c>
@@ -4314,7 +4343,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4353,7 +4382,10 @@
       <c r="C2" s="42">
         <v>2</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="43">
+        <f>IF(AND(C2&gt;3,B2&gt;80%),3000,0)</f>
+        <v>0</v>
+      </c>
       <c r="F2" s="40">
         <v>0</v>
       </c>
@@ -4368,7 +4400,10 @@
       <c r="C3" s="42">
         <v>5</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="43">
+        <f t="shared" ref="D3:D16" si="0">IF(AND(C3&gt;3,B3&gt;80%),3000,0)</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="40">
         <v>0</v>
       </c>
@@ -4383,7 +4418,10 @@
       <c r="C4" s="42">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="40">
         <v>0</v>
       </c>
@@ -4398,7 +4436,10 @@
       <c r="C5" s="42">
         <v>5</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F5" s="40">
         <v>3000</v>
       </c>
@@ -4413,7 +4454,10 @@
       <c r="C6" s="42">
         <v>2</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="40">
         <v>0</v>
       </c>
@@ -4428,7 +4472,10 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="40">
         <v>0</v>
       </c>
@@ -4443,7 +4490,10 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="40">
         <v>0</v>
       </c>
@@ -4458,7 +4508,10 @@
       <c r="C9" s="42">
         <v>5</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="40">
         <v>0</v>
       </c>
@@ -4473,7 +4526,10 @@
       <c r="C10" s="42">
         <v>4</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F10" s="40">
         <v>3000</v>
       </c>
@@ -4488,7 +4544,10 @@
       <c r="C11" s="42">
         <v>0</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="40">
         <v>0</v>
       </c>
@@ -4503,7 +4562,10 @@
       <c r="C12" s="42">
         <v>5</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F12" s="40">
         <v>3000</v>
       </c>
@@ -4518,7 +4580,10 @@
       <c r="C13" s="42">
         <v>5</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F13" s="40">
         <v>3000</v>
       </c>
@@ -4533,7 +4598,10 @@
       <c r="C14" s="42">
         <v>5</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F14" s="40">
         <v>3000</v>
       </c>
@@ -4548,7 +4616,10 @@
       <c r="C15" s="42">
         <v>0</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="40">
         <v>0</v>
       </c>
@@ -4563,7 +4634,10 @@
       <c r="C16" s="42">
         <v>4</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F16" s="40">
         <v>3000</v>
       </c>
@@ -4586,7 +4660,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4611,106 +4685,196 @@
       <c r="A2" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="46" t="str">
+        <f>RIGHT($A2,LEN($A2) - FIND("-",$A2))</f>
+        <v>82000</v>
+      </c>
+      <c r="C2" s="46" t="str">
+        <f>LEFT($A2,FIND(" ",$A2))</f>
+        <v xml:space="preserve">Бакулин </v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="46" t="str">
+        <f t="shared" ref="B3:B16" si="0">RIGHT($A3,LEN($A3) - FIND("-",$A3))</f>
+        <v>82000</v>
+      </c>
+      <c r="C3" s="46" t="str">
+        <f t="shared" ref="C3:C16" si="1">LEFT($A3,FIND(" ",$A3))</f>
+        <v xml:space="preserve">Витценко </v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+      <c r="C4" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Волков </v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+      <c r="C5" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Денисова </v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>98000</v>
+      </c>
+      <c r="C6" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Дикарева </v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="C7" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Елаев </v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>79000</v>
+      </c>
+      <c r="C8" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Лугманова </v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+      <c r="C9" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Маркелова </v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>77000</v>
+      </c>
+      <c r="C10" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Михайлова </v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+        <v>130</v>
+      </c>
+      <c r="B11" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>665000</v>
+      </c>
+      <c r="C11" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Мусагутова </v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+        <v>103</v>
+      </c>
+      <c r="B12" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>59000</v>
+      </c>
+      <c r="C12" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Мухаметзянов </v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+        <v>104</v>
+      </c>
+      <c r="B13" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="C13" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Плутова </v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="B14" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>77000</v>
+      </c>
+      <c r="C14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Сефершаев </v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+        <v>106</v>
+      </c>
+      <c r="B15" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C15" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Сираев </v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+        <v>107</v>
+      </c>
+      <c r="B16" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>46000</v>
+      </c>
+      <c r="C16" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Столяров </v>
+      </c>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4738,139 +4902,248 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="4" width="32" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+        <v>113</v>
+      </c>
+      <c r="B3" s="48" t="str">
+        <f>UPPER(A3)</f>
+        <v>ВЕЛИКИЙ ДЕНИС ВАЛЕРЬЕВИЧ</v>
+      </c>
+      <c r="C3" s="48" t="str">
+        <f>LOWER($A3)</f>
+        <v>великий денис валерьевич</v>
+      </c>
+      <c r="D3" s="48" t="str">
+        <f>PROPER(A3)</f>
+        <v>Великий Денис Валерьевич</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="B4" s="48" t="str">
+        <f t="shared" ref="B4:B14" si="0">UPPER(A4)</f>
+        <v>ДЕНЕЖКИНА ОЛЬГА ВЛАДИМИРОВНА</v>
+      </c>
+      <c r="C4" s="48" t="str">
+        <f t="shared" ref="C4:C14" si="1">LOWER($A4)</f>
+        <v>денежкина ольга владимировна</v>
+      </c>
+      <c r="D4" s="48" t="str">
+        <f t="shared" ref="D4:D14" si="2">PROPER(A4)</f>
+        <v>Денежкина Ольга Владимировна</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="B5" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ЖУЛИКОВ МАКСИМ ИВАНОВИЧ</v>
+      </c>
+      <c r="C5" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>жуликов максим иванович</v>
+      </c>
+      <c r="D5" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Жуликов Максим Иванович</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+        <v>116</v>
+      </c>
+      <c r="B6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ЛЕНТЯЕВА АЛИК МИНЕГАЯНОВИЧ</v>
+      </c>
+      <c r="C6" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>лентяева алик минегаянович</v>
+      </c>
+      <c r="D6" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Лентяева Алик Минегаянович</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+        <v>117</v>
+      </c>
+      <c r="B7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>МАЛОЕДОВА АНАСТАСИЯ ВАЛЕРЬЕВНА</v>
+      </c>
+      <c r="C7" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>малоедова анастасия валерьевна</v>
+      </c>
+      <c r="D7" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Малоедова Анастасия Валерьевна</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>МЕРЗЛЯКОВА РУСЛАН ЭСКЕНДЕРОВИЧ</v>
+      </c>
+      <c r="C8" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>мерзлякова руслан эскендерович</v>
+      </c>
+      <c r="D8" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Мерзлякова Руслан Эскендерович</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+        <v>119</v>
+      </c>
+      <c r="B9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>МУРЗИКОВА ФИДАН ФАВАРИСОВИЧ</v>
+      </c>
+      <c r="C9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>мурзикова фидан фаварисович</v>
+      </c>
+      <c r="D9" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Мурзикова Фидан Фаварисович</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+        <v>120</v>
+      </c>
+      <c r="B10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ОКОРОЧКОВ АНДРЕЙ ВАЛЕРЬЕВИЧ</v>
+      </c>
+      <c r="C10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>окорочков андрей валерьевич</v>
+      </c>
+      <c r="D10" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Окорочков Андрей Валерьевич</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+        <v>121</v>
+      </c>
+      <c r="B11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>СКОРОДУМОВ НИКОЛАЙ АЛЕКСЕЕВИЧ</v>
+      </c>
+      <c r="C11" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>скородумов николай алексеевич</v>
+      </c>
+      <c r="D11" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Скородумов Николай Алексеевич</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+        <v>122</v>
+      </c>
+      <c r="B12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ЧЕРВЯЧКОВ КОНСТАНТИН ВИКТОРОВИЧ</v>
+      </c>
+      <c r="C12" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>червячков константин викторович</v>
+      </c>
+      <c r="D12" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Червячков Константин Викторович</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="B13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ЧИРИКОВ КИРИЛЛ АЛЕКСАНДРОВИЧ</v>
+      </c>
+      <c r="C13" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>чириков кирилл александрович</v>
+      </c>
+      <c r="D13" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Чириков Кирилл Александрович</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+        <v>124</v>
+      </c>
+      <c r="B14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>ЧУДАКОВА МАРГАРИТА АЛЕКСЕЕВНА</v>
+      </c>
+      <c r="C14" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>чудакова маргарита алексеевна</v>
+      </c>
+      <c r="D14" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Чудакова Маргарита Алексеевна</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4885,7 +5158,9 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4900,10 +5175,10 @@
         <v>74</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,7 +5188,10 @@
       <c r="B2" s="51">
         <v>29852</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="52">
+        <f>DATE(YEAR(B2)+50,MONTH(B2),DAY(B2))</f>
+        <v>48114</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
@@ -4922,7 +5200,10 @@
       <c r="B3" s="51">
         <v>21770</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="52">
+        <f t="shared" ref="C3:C14" si="0">DATE(YEAR(B3)+50,MONTH(B3),DAY(B3))</f>
+        <v>40033</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
@@ -4931,7 +5212,10 @@
       <c r="B4" s="51">
         <v>25534</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="52">
+        <f t="shared" si="0"/>
+        <v>43796</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -4940,7 +5224,10 @@
       <c r="B5" s="54">
         <v>22064</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="52">
+        <f t="shared" si="0"/>
+        <v>40326</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
@@ -4949,7 +5236,10 @@
       <c r="B6" s="51">
         <v>29479</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="52">
+        <f t="shared" si="0"/>
+        <v>47741</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -4958,7 +5248,10 @@
       <c r="B7" s="51">
         <v>21315</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="52">
+        <f t="shared" si="0"/>
+        <v>39578</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -4967,7 +5260,10 @@
       <c r="B8" s="51">
         <v>26750</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="52">
+        <f t="shared" si="0"/>
+        <v>45012</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
@@ -4976,7 +5272,10 @@
       <c r="B9" s="51">
         <v>23396</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="52">
+        <f t="shared" si="0"/>
+        <v>41659</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
@@ -4985,7 +5284,10 @@
       <c r="B10" s="51">
         <v>30520</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="52">
+        <f t="shared" si="0"/>
+        <v>48783</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
@@ -4994,7 +5296,10 @@
       <c r="B11" s="51">
         <v>31299</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="52">
+        <f t="shared" si="0"/>
+        <v>49561</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
@@ -5003,7 +5308,10 @@
       <c r="B12" s="51">
         <v>23182</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="52">
+        <f t="shared" si="0"/>
+        <v>41445</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
@@ -5012,7 +5320,10 @@
       <c r="B13" s="51">
         <v>28369</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="52">
+        <f t="shared" si="0"/>
+        <v>46631</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
@@ -5021,7 +5332,10 @@
       <c r="B14" s="51">
         <v>24976</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="52">
+        <f t="shared" si="0"/>
+        <v>43238</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25"/>
